--- a/outcome/appendix/model/select.xlsx
+++ b/outcome/appendix/model/select.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">disease</t>
   </si>
@@ -20,91 +20,94 @@
     <t xml:space="preserve">Best</t>
   </si>
   <si>
-    <t xml:space="preserve">HAV</t>
+    <t xml:space="preserve">HFMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hybrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infectious diarrhea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARIMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dysentery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHC</t>
   </si>
   <si>
     <t xml:space="preserve">ETS</t>
   </si>
   <si>
-    <t xml:space="preserve">HEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hybrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typhoid and paratyphoid fever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SARIMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AHC</t>
+    <t xml:space="preserve">Hepatitis E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hepatitis A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prophet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enteric fever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hepatitis B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayesian Structural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syphilis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hepatitis C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonorrhea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuberculosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scarlet fever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pertussis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brucellosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HFRS</t>
   </si>
   <si>
     <t xml:space="preserve">Neural Network</t>
   </si>
   <si>
-    <t xml:space="preserve">Dysentery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HFMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other infectious diarrhea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brucellosis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dengue fever</t>
   </si>
   <si>
-    <t xml:space="preserve">Bayesian Structural</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HFRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japanese encephalitis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Malaria</t>
   </si>
   <si>
-    <t xml:space="preserve">Hydatidosis</t>
+    <t xml:space="preserve">Echinococcosis</t>
   </si>
   <si>
     <t xml:space="preserve">Typhus</t>
   </si>
   <si>
-    <t xml:space="preserve">AIDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonorrhea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HBV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syphilis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pertussis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scarlet fever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuberculosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubella</t>
+    <t xml:space="preserve">JE</t>
   </si>
 </sst>
 </file>
@@ -465,31 +468,31 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -497,7 +500,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -505,15 +508,15 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -521,7 +524,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -529,7 +532,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +540,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -545,7 +548,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +556,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -561,7 +564,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -569,7 +572,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -577,7 +580,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -585,7 +588,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -593,47 +596,47 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/model/select.xlsx
+++ b/outcome/appendix/model/select.xlsx
@@ -524,7 +524,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -572,7 +572,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -588,7 +588,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
